--- a/src/aesa_pbs/data/aesa_ClimateChange_EnergyImbalance.xlsx
+++ b/src/aesa_pbs/data/aesa_ClimateChange_EnergyImbalance.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\bw_methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\src\aesa_pbs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BE3BF8-A162-467A-A778-855063C59C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE5CB2-563E-4BE8-A714-ADC046E9E49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$100</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="32">
   <si>
     <t>Carbon dioxide, fossil</t>
   </si>
@@ -118,6 +121,9 @@
   </si>
   <si>
     <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil, resource correction</t>
   </si>
 </sst>
 </file>
@@ -444,17 +450,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62.44140625" customWidth="1"/>
     <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -597,7 +603,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -608,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -619,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -641,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -652,7 +658,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,6 +1550,17 @@
       </c>
       <c r="C99">
         <v>6.7099999999999999E-8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100">
+        <v>-3.5300000000000001E-13</v>
       </c>
     </row>
   </sheetData>

--- a/src/aesa_pbs/data/aesa_ClimateChange_EnergyImbalance.xlsx
+++ b/src/aesa_pbs/data/aesa_ClimateChange_EnergyImbalance.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\bw_methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\src\aesa_pbs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BE3BF8-A162-467A-A778-855063C59C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269829B3-C972-4741-BA29-5B847444C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21015" yWindow="-2550" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="34">
   <si>
     <t>Carbon dioxide, fossil</t>
   </si>
@@ -118,6 +128,15 @@
   </si>
   <si>
     <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil, resource correction</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>air::unspecified</t>
   </si>
 </sst>
 </file>
@@ -141,12 +160,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,9 +186,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,17 +473,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="62.44140625" customWidth="1"/>
     <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -596,8 +625,9 @@
       <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" s="2">
+        <f>-1*$C$2</f>
+        <v>-3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,8 +637,9 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" s="2">
+        <f>1*$C$2</f>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,8 +649,9 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:C18" si="0">1*$C$2</f>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,8 +661,9 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,8 +673,9 @@
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,8 +685,9 @@
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5300000000000001E-13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,6 +1579,78 @@
       </c>
       <c r="C99">
         <v>6.7099999999999999E-8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="3">
+        <f>-1*$C$2</f>
+        <v>-3.5300000000000001E-13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="3">
+        <f>11*$C$2</f>
+        <v>3.8830000000000003E-12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" ref="C102:C105" si="1">11*$C$2</f>
+        <v>3.8830000000000003E-12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8830000000000003E-12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8830000000000003E-12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="3">
+        <f t="shared" si="1"/>
+        <v>3.8830000000000003E-12</v>
       </c>
     </row>
   </sheetData>

--- a/src/aesa_pbs/data/aesa_ClimateChange_EnergyImbalance.xlsx
+++ b/src/aesa_pbs/data/aesa_ClimateChange_EnergyImbalance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\src\aesa_pbs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269829B3-C972-4741-BA29-5B847444C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3429A26C-0191-4CC3-83D0-F8699EAE476C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21015" yWindow="-2550" windowWidth="13830" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
   <si>
     <t>Carbon dioxide, fossil</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>air::unspecified</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, to soil or biomass stock</t>
+  </si>
+  <si>
+    <t>soil::agricultural</t>
+  </si>
+  <si>
+    <t>soil::forestry</t>
+  </si>
+  <si>
+    <t>soil::industrial</t>
+  </si>
+  <si>
+    <t>soil::unspecified</t>
   </si>
 </sst>
 </file>
@@ -160,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,13 +207,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1653,6 +1675,54 @@
         <v>3.8830000000000003E-12</v>
       </c>
     </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="4">
+        <f>-1*$C$2</f>
+        <v>-3.5300000000000001E-13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" s="4">
+        <f t="shared" ref="C107:C109" si="2">-1*$C$2</f>
+        <v>-3.5300000000000001E-13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.5300000000000001E-13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="4">
+        <f t="shared" si="2"/>
+        <v>-3.5300000000000001E-13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
